--- a/data/144/SCB/PPI2015M.xlsx
+++ b/data/144/SCB/PPI2015M.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="000001I4" sheetId="2" r:id="rId2"/>
+    <x:sheet name="TM0001I4" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <x:si>
     <x:t>Producer Price Index by market and products by products by SPIN 2015, observations and month</x:t>
   </x:si>
@@ -1168,6 +1168,9 @@
     <x:t>2021M11</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
     <x:t>C MANUFACTURED PRODUCTS</x:t>
   </x:si>
   <x:si>
@@ -1207,7 +1210,7 @@
     <x:t>Export Price Index (EXPI):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211222 09:30</x:t>
+    <x:t>20220126 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Producer Price Index (PPI):</x:t>
@@ -1261,7 +1264,7 @@
     <x:t>Internal reference code:</x:t>
   </x:si>
   <x:si>
-    <x:t>000001I4</x:t>
+    <x:t>TM0001I4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1270,7 +1273,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -1324,41 +1327,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1369,7 +1369,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1652,28 +1652,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:NU76"/>
+  <x:dimension ref="A1:NV76"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="36.130625" style="0" customWidth="1"/>
-    <x:col min="3" max="385" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="386" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:385">
+    <x:row r="1" spans="1:386">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:385">
+    <x:row r="3" spans="1:386">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2823,13 +2821,16 @@
       <x:c r="NU3" s="2" t="s">
         <x:v>383</x:v>
       </x:c>
+      <x:c r="NV3" s="2" t="s">
+        <x:v>384</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:385">
+    <x:row r="4" spans="1:386">
       <x:c r="A4" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>72</x:v>
@@ -3980,10 +3981,13 @@
       <x:c r="NU4" s="3" t="n">
         <x:v>123</x:v>
       </x:c>
+      <x:c r="NV4" s="3" t="n">
+        <x:v>124.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:385">
+    <x:row r="5" spans="1:386">
       <x:c r="B5" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>67.6</x:v>
@@ -5134,10 +5138,13 @@
       <x:c r="NU5" s="3" t="n">
         <x:v>125.1</x:v>
       </x:c>
+      <x:c r="NV5" s="3" t="n">
+        <x:v>125.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:385">
+    <x:row r="6" spans="1:386">
       <x:c r="B6" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>63.5</x:v>
@@ -6288,13 +6295,16 @@
       <x:c r="NU6" s="3" t="n">
         <x:v>123.4</x:v>
       </x:c>
+      <x:c r="NV6" s="3" t="n">
+        <x:v>124.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:385">
+    <x:row r="7" spans="1:386">
       <x:c r="A7" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>46</x:v>
@@ -7445,10 +7455,13 @@
       <x:c r="NU7" s="3" t="n">
         <x:v>124</x:v>
       </x:c>
+      <x:c r="NV7" s="3" t="n">
+        <x:v>124.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:385">
+    <x:row r="8" spans="1:386">
       <x:c r="B8" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>42.8</x:v>
@@ -8599,10 +8612,13 @@
       <x:c r="NU8" s="3" t="n">
         <x:v>130.4</x:v>
       </x:c>
+      <x:c r="NV8" s="3" t="n">
+        <x:v>131.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:385">
+    <x:row r="9" spans="1:386">
       <x:c r="B9" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>45.3</x:v>
@@ -9753,13 +9769,16 @@
       <x:c r="NU9" s="3" t="n">
         <x:v>145.6</x:v>
       </x:c>
+      <x:c r="NV9" s="3" t="n">
+        <x:v>148.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:385">
+    <x:row r="10" spans="1:386">
       <x:c r="A10" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>81.8</x:v>
@@ -10910,10 +10929,13 @@
       <x:c r="NU10" s="3" t="n">
         <x:v>111.7</x:v>
       </x:c>
+      <x:c r="NV10" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:385">
+    <x:row r="11" spans="1:386">
       <x:c r="B11" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>77.4</x:v>
@@ -12064,10 +12086,13 @@
       <x:c r="NU11" s="3" t="n">
         <x:v>115.4</x:v>
       </x:c>
+      <x:c r="NV11" s="3" t="n">
+        <x:v>116</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:385">
+    <x:row r="12" spans="1:386">
       <x:c r="B12" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>77.5</x:v>
@@ -13218,13 +13243,16 @@
       <x:c r="NU12" s="3" t="n">
         <x:v>114.6</x:v>
       </x:c>
+      <x:c r="NV12" s="3" t="n">
+        <x:v>115.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:385">
+    <x:row r="13" spans="1:386">
       <x:c r="A13" s="2" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>54.7</x:v>
@@ -14375,10 +14403,13 @@
       <x:c r="NU13" s="3" t="n">
         <x:v>114.7</x:v>
       </x:c>
+      <x:c r="NV13" s="3" t="n">
+        <x:v>116.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:385">
+    <x:row r="14" spans="1:386">
       <x:c r="B14" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>55.4</x:v>
@@ -15529,10 +15560,13 @@
       <x:c r="NU14" s="3" t="n">
         <x:v>114.5</x:v>
       </x:c>
+      <x:c r="NV14" s="3" t="n">
+        <x:v>115.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:385">
+    <x:row r="15" spans="1:386">
       <x:c r="B15" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>59.6</x:v>
@@ -16683,13 +16717,16 @@
       <x:c r="NU15" s="3" t="n">
         <x:v>112.7</x:v>
       </x:c>
+      <x:c r="NV15" s="3" t="n">
+        <x:v>113.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:385">
+    <x:row r="16" spans="1:386">
       <x:c r="A16" s="2" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>84.7</x:v>
@@ -17840,10 +17877,13 @@
       <x:c r="NU16" s="3" t="n">
         <x:v>111.1</x:v>
       </x:c>
+      <x:c r="NV16" s="3" t="n">
+        <x:v>112.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:385">
+    <x:row r="17" spans="1:386">
       <x:c r="B17" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>81.1</x:v>
@@ -18994,10 +19034,13 @@
       <x:c r="NU17" s="3" t="n">
         <x:v>113.1</x:v>
       </x:c>
+      <x:c r="NV17" s="3" t="n">
+        <x:v>114</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:385">
+    <x:row r="18" spans="1:386">
       <x:c r="B18" s="2" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>83.4</x:v>
@@ -20148,224 +20191,226 @@
       <x:c r="NU18" s="3" t="n">
         <x:v>110.9</x:v>
       </x:c>
+      <x:c r="NV18" s="3" t="n">
+        <x:v>111.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="20" spans="1:385">
+    <x:row r="20" spans="1:386">
       <x:c r="A20" s="4" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:385">
+    <x:row r="21" spans="1:386">
       <x:c r="A21" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:385">
+    <x:row r="22" spans="1:386">
       <x:c r="A22" s="4" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:385">
+    <x:row r="24" spans="1:386">
       <x:c r="A24" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:385">
+    <x:row r="25" spans="1:386">
       <x:c r="A25" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:385">
+    <x:row r="26" spans="1:386">
       <x:c r="A26" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:386">
+      <x:c r="A27" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:386">
+      <x:c r="A28" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:386">
+      <x:c r="A29" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:386">
+      <x:c r="A30" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:386">
+      <x:c r="A32" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:386">
+      <x:c r="A33" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:386">
+      <x:c r="A35" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:386">
+      <x:c r="A36" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:385">
-      <x:c r="A27" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="37" spans="1:386">
+      <x:c r="A37" s="0" t="s">
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:385">
-      <x:c r="A28" s="0" t="s">
+    <x:row r="38" spans="1:386">
+      <x:c r="A38" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:386">
+      <x:c r="A39" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:386">
+      <x:c r="A44" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:386">
+      <x:c r="A45" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:385">
-      <x:c r="A29" s="0" t="s">
+    <x:row r="46" spans="1:386">
+      <x:c r="A46" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:386">
+      <x:c r="A47" s="0" t="s">
         <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:385">
-      <x:c r="A30" s="0" t="s">
+    <x:row r="48" spans="1:386">
+      <x:c r="A48" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:386">
+      <x:c r="A49" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:386">
+      <x:c r="A50" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:386">
+      <x:c r="A51" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:386">
+      <x:c r="A52" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:385">
-      <x:c r="A32" s="0" t="s">
+    <x:row r="53" spans="1:386">
+      <x:c r="A53" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:386">
+      <x:c r="A54" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:386">
+      <x:c r="A55" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:386">
+      <x:c r="A56" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:385">
-      <x:c r="A33" s="0" t="s">
-        <x:v>401</x:v>
+    <x:row r="57" spans="1:386">
+      <x:c r="A57" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:385">
-      <x:c r="A35" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="61" spans="1:386">
+      <x:c r="A61" s="0" t="s">
+        <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:385">
-      <x:c r="A36" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="62" spans="1:386">
+      <x:c r="A62" s="0" t="s">
+        <x:v>411</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:385">
-      <x:c r="A37" s="0" t="s">
-        <x:v>403</x:v>
+    <x:row r="63" spans="1:386">
+      <x:c r="A63" s="0" t="s">
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:385">
-      <x:c r="A38" s="0" t="s">
-        <x:v>404</x:v>
+    <x:row r="64" spans="1:386">
+      <x:c r="A64" s="0" t="s">
+        <x:v>411</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:385">
-      <x:c r="A39" s="0" t="s">
-        <x:v>405</x:v>
+    <x:row r="65" spans="1:386">
+      <x:c r="A65" s="0" t="s">
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:385">
-      <x:c r="A40" s="0" t="s"/>
+    <x:row r="66" spans="1:386">
+      <x:c r="A66" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
     </x:row>
-    <x:row r="41" spans="1:385">
-      <x:c r="A41" s="0" t="s"/>
+    <x:row r="70" spans="1:386">
+      <x:c r="A70" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
     </x:row>
-    <x:row r="44" spans="1:385">
-      <x:c r="A44" s="0" t="s">
-        <x:v>406</x:v>
+    <x:row r="72" spans="1:386">
+      <x:c r="A72" s="0" t="s">
+        <x:v>413</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:385">
-      <x:c r="A45" s="0" t="s">
-        <x:v>396</x:v>
+    <x:row r="73" spans="1:386">
+      <x:c r="A73" s="0" t="s">
+        <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:385">
-      <x:c r="A46" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="75" spans="1:386">
+      <x:c r="A75" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:385">
-      <x:c r="A47" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:385">
-      <x:c r="A48" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:385">
-      <x:c r="A49" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:385">
-      <x:c r="A50" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:385">
-      <x:c r="A51" s="0" t="s">
-        <x:v>408</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:385">
-      <x:c r="A52" s="0" t="s">
-        <x:v>396</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:385">
-      <x:c r="A53" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:385">
-      <x:c r="A54" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:385">
-      <x:c r="A55" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:385">
-      <x:c r="A56" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:385">
-      <x:c r="A57" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:385">
-      <x:c r="A61" s="0" t="s">
-        <x:v>396</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:385">
-      <x:c r="A62" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:385">
-      <x:c r="A63" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:385">
-      <x:c r="A64" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:385">
-      <x:c r="A65" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:385">
-      <x:c r="A66" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:385">
-      <x:c r="A70" s="0" t="s">
-        <x:v>411</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:385">
-      <x:c r="A72" s="0" t="s">
-        <x:v>412</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:385">
-      <x:c r="A73" s="0" t="s">
-        <x:v>413</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:385">
-      <x:c r="A75" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:385">
+    <x:row r="76" spans="1:386">
       <x:c r="A76" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A20:NV20"/>
+    <x:mergeCell ref="A21:NV21"/>
+    <x:mergeCell ref="A22:NV22"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
